--- a/me/1.training_sass/04-Variable-Data-Type.xlsx
+++ b/me/1.training_sass/04-Variable-Data-Type.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B1652-C0F8-4534-A57B-C20A16B6C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563998F0-3236-49B1-9CA2-E3F44D85AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use" sheetId="1" r:id="rId1"/>
+    <sheet name="Global" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>構成</t>
   </si>
@@ -188,6 +189,115 @@
   </si>
   <si>
     <t>  color: #f2f6f6; }</t>
+  </si>
+  <si>
+    <t>2.Global</t>
+  </si>
+  <si>
+    <t>02-global.scss</t>
+  </si>
+  <si>
+    <t>$text-size: 30px;</t>
+  </si>
+  <si>
+    <t>    font: {</t>
+  </si>
+  <si>
+    <t>        size: $text-size;</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    p {</t>
+  </si>
+  <si>
+    <t>        font-size: $h3-text-size;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$h3-text-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 10px !</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>globa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    font-size: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$h3-text-size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>02-global.css</t>
+  </si>
+  <si>
+    <t>  font-size: 30px; }</t>
+  </si>
+  <si>
+    <t>  h3 p {</t>
+  </si>
+  <si>
+    <t>    font-size: 10px; }</t>
+  </si>
+  <si>
+    <t>  font-size: 10px; }</t>
   </si>
 </sst>
 </file>
@@ -581,6 +691,117 @@
         <a:xfrm>
           <a:off x="828675" y="3057525"/>
           <a:ext cx="95250" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5496CC-0637-3CBE-7921-0B0814A12727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="2657475"/>
+          <a:ext cx="590550" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D007ED5C-F961-2732-2843-3178DD099517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1485900" y="4924425"/>
+          <a:ext cx="514350" cy="1971675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -874,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,4 +1377,269 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6374F8-7E5F-4355-B4DD-8106688B7DB3}">
+  <dimension ref="A2:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/04-Variable-Data-Type.xlsx
+++ b/me/1.training_sass/04-Variable-Data-Type.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563998F0-3236-49B1-9CA2-E3F44D85AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F9012-5164-45E6-96B0-5F3B3B522728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use" sheetId="1" r:id="rId1"/>
     <sheet name="Global" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Type" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>構成</t>
   </si>
@@ -298,6 +299,206 @@
   </si>
   <si>
     <t>  font-size: 10px; }</t>
+  </si>
+  <si>
+    <t>3.Data-Type</t>
+  </si>
+  <si>
+    <t>03-data-type.scss</t>
+  </si>
+  <si>
+    <t>03-data-type.css</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>    numbers (e.g. 1.2, 13, 10px)</t>
+  </si>
+  <si>
+    <t>    strings of text, with and without quotes (e.g. "foo", 'bar', baz)</t>
+  </si>
+  <si>
+    <t>    colors (e.g. blue, #04a3f9, rgba(255, 0, 0, 0.5))</t>
+  </si>
+  <si>
+    <t>    booleans (e.g. true, false)</t>
+  </si>
+  <si>
+    <t>    nulls (e.g. null)</t>
+  </si>
+  <si>
+    <t>    lists of values, separated by spaces or commas (e.g. 1.5em 1em 0 2em, Helvetica, Arial, sans-serif)</t>
+  </si>
+  <si>
+    <t>    maps from one value to another (e.g. (key1: value1, key2: value2))</t>
+  </si>
+  <si>
+    <t>p {</t>
+  </si>
+  <si>
+    <t>    font: 10px/8px;             // Plain CSS, no division</t>
+  </si>
+  <si>
+    <t>    $width: 1000px;</t>
+  </si>
+  <si>
+    <t>    width: $width/2;            // Uses a variable, does division</t>
+  </si>
+  <si>
+    <t>    width: round(1.5)/2;        // Uses a function, does division</t>
+  </si>
+  <si>
+    <t>    height: (500px/2);          // Uses parentheses, does division</t>
+  </si>
+  <si>
+    <t>    margin-left: 5px + 8px/2px; // Uses +, does division</t>
+  </si>
+  <si>
+    <t>    font: (italic bold 10px/8px); // In a list, parentheses don't count</t>
+  </si>
+  <si>
+    <t>div {</t>
+  </si>
+  <si>
+    <t>  font: 10px/8px;</t>
+  </si>
+  <si>
+    <t>  width: 500px;</t>
+  </si>
+  <si>
+    <t>  width: 1;</t>
+  </si>
+  <si>
+    <t>  height: 250px;</t>
+  </si>
+  <si>
+    <t>  margin-left: 9px;</t>
+  </si>
+  <si>
+    <t>  font: italic bold 10px/8px; }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$image-url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: "../../images-abc/";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    background-url: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$image-url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + "background.png";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    background-url:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$image-url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + "acd.png";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  background-url: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>../../images-abc/background.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>  background-url: "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>../../images-abc/acd.png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"; }</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -420,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -432,6 +633,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,6 +1005,223 @@
         <a:xfrm flipH="1">
           <a:off x="1485900" y="4924425"/>
           <a:ext cx="514350" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AB1831-D434-8F73-2D0C-9593989D164B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1047750" y="3371850"/>
+          <a:ext cx="2209800" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC52684-90AF-DA86-9C9F-54C173418082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="5695950"/>
+          <a:ext cx="1009650" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1FC53F-3AB9-99F9-FB37-53950E655B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="5705475"/>
+          <a:ext cx="752475" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B7C813-9718-5F0A-0A13-E6F989581461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="6276975"/>
+          <a:ext cx="66675" cy="6753225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1383,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6374F8-7E5F-4355-B4DD-8106688B7DB3}">
   <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,4 +2062,889 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9B232-3C4B-4F0D-9D86-7D3C5FF671C4}">
+  <dimension ref="A2:K72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="5"/>
+      <c r="I44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="5"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="5"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/04-Variable-Data-Type.xlsx
+++ b/me/1.training_sass/04-Variable-Data-Type.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4F9012-5164-45E6-96B0-5F3B3B522728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05E3F6-6513-4206-853D-ACDF57B34720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use" sheetId="1" r:id="rId1"/>
     <sheet name="Global" sheetId="2" r:id="rId2"/>
     <sheet name="Data Type" sheetId="3" r:id="rId3"/>
+    <sheet name="Interpolation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>構成</t>
   </si>
@@ -499,6 +500,74 @@
       </rPr>
       <t>"; }</t>
     </r>
+  </si>
+  <si>
+    <t>4.Interpolation</t>
+  </si>
+  <si>
+    <t>04-interpolation.scss</t>
+  </si>
+  <si>
+    <t>$name: foo123;</t>
+  </si>
+  <si>
+    <t>$attr: border123;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  #{$attr}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-color: blue;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#{$name}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <t>04-interpolation.css</t>
+  </si>
+  <si>
+    <t>p.foo123 {</t>
+  </si>
+  <si>
+    <t>  border123-color: blue; }</t>
   </si>
 </sst>
 </file>
@@ -2068,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C9B232-3C4B-4F0D-9D86-7D3C5FF671C4}">
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,4 +3016,227 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEBB1D0-F00C-41AA-A520-2EE5369B4091}">
+  <dimension ref="A2:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/1.training_sass/04-Variable-Data-Type.xlsx
+++ b/me/1.training_sass/04-Variable-Data-Type.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05E3F6-6513-4206-853D-ACDF57B34720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06657B9C-DEA5-4B1A-B77E-9A504EF1CD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use" sheetId="1" r:id="rId1"/>
     <sheet name="Global" sheetId="2" r:id="rId2"/>
     <sheet name="Data Type" sheetId="3" r:id="rId3"/>
     <sheet name="Interpolation" sheetId="4" r:id="rId4"/>
+    <sheet name="Google Font" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="119">
   <si>
     <t>構成</t>
   </si>
@@ -569,6 +570,117 @@
   <si>
     <t>  border123-color: blue; }</t>
   </si>
+  <si>
+    <t>https://fonts.google.com/</t>
+  </si>
+  <si>
+    <t>5.Google-Font</t>
+  </si>
+  <si>
+    <t>05-google-font.scss</t>
+  </si>
+  <si>
+    <t>05-google-font.html</t>
+  </si>
+  <si>
+    <t>Pangolin</t>
+  </si>
+  <si>
+    <t>Barrio</t>
+  </si>
+  <si>
+    <t>@import url('https://fonts.googleapis.com/css2?family=Barrio&amp;family=Pangolin&amp;display=swap');</t>
+  </si>
+  <si>
+    <t>font-family: 'Pangolin', cursive;</t>
+  </si>
+  <si>
+    <t>font-family: 'Barrio', cursive;</t>
+  </si>
+  <si>
+    <t>$font-text: 'Pangolin', cursive;</t>
+  </si>
+  <si>
+    <t>$font-title: 'Barrio', cursive;</t>
+  </si>
+  <si>
+    <t>body {</t>
+  </si>
+  <si>
+    <t>    font-family: $font-text;</t>
+  </si>
+  <si>
+    <t>h1 {</t>
+  </si>
+  <si>
+    <t>    font-family: $font-title;</t>
+  </si>
+  <si>
+    <t>05-google-font.css</t>
+  </si>
+  <si>
+    <t>@import url("https://fonts.googleapis.com/css2?family=Barrio&amp;family=Pangolin&amp;display=swap");</t>
+  </si>
+  <si>
+    <t>  font-family: "Pangolin", cursive; }</t>
+  </si>
+  <si>
+    <t>  font-family: "Barrio", cursive; }</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;head&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;meta charset="utf-8"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;title&gt;Bootstrap 101 Template&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;link rel="stylesheet" type="text/css" href="05-google-font.css"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>&lt;body&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;h1&gt;</t>
+  </si>
+  <si>
+    <t>        Lorem ipsum dolor sit amet</t>
+  </si>
+  <si>
+    <t>    &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;h3&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/h3&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;p&gt;</t>
+  </si>
+  <si>
+    <t>        Lorem ipsum dolor sit amet, consectetur adipisicing elit. Natus ratione nam similique dolor, saepe obcaecati. Veniam, quia inventore consequuntur. Nam.</t>
+  </si>
+  <si>
+    <t>    &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -590,12 +702,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -690,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -704,6 +822,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1319,6 +1440,425 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>456164</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>65871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A068AB-098D-1B26-F449-FBA9BA8053CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="495300"/>
+          <a:ext cx="8285714" cy="6428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556512</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>174647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81001CC5-65AC-7B8B-9D1C-8BBB826668C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638735" y="7328647"/>
+          <a:ext cx="7784306" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>122278</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>180286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2D4D00-879C-A9DC-2B46-ACB9F8B72872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13335000"/>
+          <a:ext cx="12371428" cy="5514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>527335</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>3147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3329D70B-5CAA-2A03-0D49-98AB14F97DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818030" y="26378647"/>
+          <a:ext cx="8180952" cy="6200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>109367</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>138258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611705B6-FC70-E9BB-26D3-A8702B18C636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="907677" y="32866853"/>
+          <a:ext cx="12571428" cy="5561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>246053</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>84989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22ED907F-C8E4-451C-26C6-5F7388D1D0E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="32108775"/>
+          <a:ext cx="12771428" cy="5885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46500A9C-BEE7-429C-A962-643DA85EE458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="38490525"/>
+          <a:ext cx="361950" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359F1B07-9D96-0635-DDAB-B72922D91A88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2571750" y="38719125"/>
+          <a:ext cx="5524500" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103459</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>161643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633CC446-54B6-966E-31D9-E75866C009AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="53721000"/>
+          <a:ext cx="10523809" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3022,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEBB1D0-F00C-41AA-A520-2EE5369B4091}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,4 +3779,1085 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EB26B9-A38C-46DD-9C03-8D74BF1616DF}">
+  <dimension ref="A2:Q281"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L301" sqref="L301"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B202" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N202" s="2"/>
+      <c r="O202" s="3"/>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M203" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N203" s="7"/>
+      <c r="O203" s="9"/>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B207" s="4"/>
+      <c r="C207" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B208" s="4"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="4"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="5"/>
+      <c r="I209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G210" s="10"/>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="4"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B212" s="6"/>
+      <c r="C212" s="7"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G212" s="7"/>
+      <c r="H212" s="9"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="3"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="5"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="5"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="5"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="5"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="5"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="5"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="4"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="5"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="5"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B225" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="5"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B226" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="5"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="5"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B228" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="5"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B229" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="5"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B230" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="5"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="5"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B232" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="5"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B233" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="5"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B234" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="7"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7"/>
+      <c r="I234" s="7"/>
+      <c r="J234" s="7"/>
+      <c r="K234" s="9"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B238" s="4"/>
+      <c r="C238" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="10"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B240" s="4"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G241" s="10"/>
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B242" s="4"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B243" s="4"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G243" s="10"/>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="7"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G244" s="7"/>
+      <c r="H244" s="9"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="3"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="K248" s="5"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="5"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="5"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="5"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="5"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="10"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="10"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="10"/>
+      <c r="K253" s="5"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="4"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10"/>
+      <c r="K254" s="5"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="5"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C256" s="10"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+      <c r="K256" s="5"/>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B257" s="4"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
+      <c r="G257" s="10"/>
+      <c r="H257" s="10"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="10"/>
+      <c r="K257" s="5"/>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B258" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="5"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B259" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C259" s="7"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
+      <c r="G259" s="7"/>
+      <c r="H259" s="7"/>
+      <c r="I259" s="7"/>
+      <c r="J259" s="7"/>
+      <c r="K259" s="9"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="2"/>
+      <c r="N262" s="2"/>
+      <c r="O262" s="2"/>
+      <c r="P262" s="2"/>
+      <c r="Q262" s="3"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B263" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
+      <c r="G263" s="10"/>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="10"/>
+      <c r="K263" s="10"/>
+      <c r="L263" s="10"/>
+      <c r="M263" s="10"/>
+      <c r="N263" s="10"/>
+      <c r="O263" s="10"/>
+      <c r="P263" s="10"/>
+      <c r="Q263" s="5"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B264" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
+      <c r="G264" s="10"/>
+      <c r="H264" s="10"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+      <c r="K264" s="10"/>
+      <c r="L264" s="10"/>
+      <c r="M264" s="10"/>
+      <c r="N264" s="10"/>
+      <c r="O264" s="10"/>
+      <c r="P264" s="10"/>
+      <c r="Q264" s="5"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B265" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="O265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="5"/>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B266" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="10"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="10"/>
+      <c r="K266" s="10"/>
+      <c r="L266" s="10"/>
+      <c r="M266" s="10"/>
+      <c r="N266" s="10"/>
+      <c r="O266" s="10"/>
+      <c r="P266" s="10"/>
+      <c r="Q266" s="5"/>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B267" s="4"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="10"/>
+      <c r="O267" s="10"/>
+      <c r="P267" s="10"/>
+      <c r="Q267" s="5"/>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B268" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C268" s="10"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
+      <c r="G268" s="10"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="10"/>
+      <c r="K268" s="10"/>
+      <c r="L268" s="10"/>
+      <c r="M268" s="10"/>
+      <c r="N268" s="10"/>
+      <c r="O268" s="10"/>
+      <c r="P268" s="10"/>
+      <c r="Q268" s="5"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B269" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
+      <c r="L269" s="10"/>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="O269" s="10"/>
+      <c r="P269" s="10"/>
+      <c r="Q269" s="5"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B270" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
+      <c r="G270" s="10"/>
+      <c r="H270" s="10"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="10"/>
+      <c r="K270" s="10"/>
+      <c r="L270" s="10"/>
+      <c r="M270" s="10"/>
+      <c r="N270" s="10"/>
+      <c r="O270" s="10"/>
+      <c r="P270" s="10"/>
+      <c r="Q270" s="5"/>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B271" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="5"/>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B272" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="10"/>
+      <c r="H272" s="10"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="10"/>
+      <c r="K272" s="10"/>
+      <c r="L272" s="10"/>
+      <c r="M272" s="10"/>
+      <c r="N272" s="10"/>
+      <c r="O272" s="10"/>
+      <c r="P272" s="10"/>
+      <c r="Q272" s="5"/>
+    </row>
+    <row r="273" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B273" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C273" s="10"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="10"/>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="10"/>
+      <c r="K273" s="10"/>
+      <c r="L273" s="10"/>
+      <c r="M273" s="10"/>
+      <c r="N273" s="10"/>
+      <c r="O273" s="10"/>
+      <c r="P273" s="10"/>
+      <c r="Q273" s="5"/>
+    </row>
+    <row r="274" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B274" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C274" s="10"/>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10"/>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10"/>
+      <c r="J274" s="10"/>
+      <c r="K274" s="10"/>
+      <c r="L274" s="10"/>
+      <c r="M274" s="10"/>
+      <c r="N274" s="10"/>
+      <c r="O274" s="10"/>
+      <c r="P274" s="10"/>
+      <c r="Q274" s="5"/>
+    </row>
+    <row r="275" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B275" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10"/>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="10"/>
+      <c r="K275" s="10"/>
+      <c r="L275" s="10"/>
+      <c r="M275" s="10"/>
+      <c r="N275" s="10"/>
+      <c r="O275" s="10"/>
+      <c r="P275" s="10"/>
+      <c r="Q275" s="5"/>
+    </row>
+    <row r="276" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B276" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C276" s="10"/>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="10"/>
+      <c r="G276" s="10"/>
+      <c r="H276" s="10"/>
+      <c r="I276" s="10"/>
+      <c r="J276" s="10"/>
+      <c r="K276" s="10"/>
+      <c r="L276" s="10"/>
+      <c r="M276" s="10"/>
+      <c r="N276" s="10"/>
+      <c r="O276" s="10"/>
+      <c r="P276" s="10"/>
+      <c r="Q276" s="5"/>
+    </row>
+    <row r="277" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B277" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="10"/>
+      <c r="G277" s="10"/>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="10"/>
+      <c r="K277" s="10"/>
+      <c r="L277" s="10"/>
+      <c r="M277" s="10"/>
+      <c r="N277" s="10"/>
+      <c r="O277" s="10"/>
+      <c r="P277" s="10"/>
+      <c r="Q277" s="5"/>
+    </row>
+    <row r="278" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B278" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C278" s="10"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="10"/>
+      <c r="G278" s="10"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="10"/>
+      <c r="J278" s="10"/>
+      <c r="K278" s="10"/>
+      <c r="L278" s="10"/>
+      <c r="M278" s="10"/>
+      <c r="N278" s="10"/>
+      <c r="O278" s="10"/>
+      <c r="P278" s="10"/>
+      <c r="Q278" s="5"/>
+    </row>
+    <row r="279" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B279" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="10"/>
+      <c r="H279" s="10"/>
+      <c r="I279" s="10"/>
+      <c r="J279" s="10"/>
+      <c r="K279" s="10"/>
+      <c r="L279" s="10"/>
+      <c r="M279" s="10"/>
+      <c r="N279" s="10"/>
+      <c r="O279" s="10"/>
+      <c r="P279" s="10"/>
+      <c r="Q279" s="5"/>
+    </row>
+    <row r="280" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B280" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C280" s="10"/>
+      <c r="D280" s="10"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="10"/>
+      <c r="G280" s="10"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="10"/>
+      <c r="K280" s="10"/>
+      <c r="L280" s="10"/>
+      <c r="M280" s="10"/>
+      <c r="N280" s="10"/>
+      <c r="O280" s="10"/>
+      <c r="P280" s="10"/>
+      <c r="Q280" s="5"/>
+    </row>
+    <row r="281" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B281" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C281" s="7"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
+      <c r="G281" s="7"/>
+      <c r="H281" s="7"/>
+      <c r="I281" s="7"/>
+      <c r="J281" s="7"/>
+      <c r="K281" s="7"/>
+      <c r="L281" s="7"/>
+      <c r="M281" s="7"/>
+      <c r="N281" s="7"/>
+      <c r="O281" s="7"/>
+      <c r="P281" s="7"/>
+      <c r="Q281" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>